--- a/biology/Mycologie/Psilocybe_cyanescens/Psilocybe_cyanescens.xlsx
+++ b/biology/Mycologie/Psilocybe_cyanescens/Psilocybe_cyanescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilocybe cyanescens est un champignon hallucinogène de la famille des Strophariaceaes. Les composants induisant ses effets psychoactifs sont la psilocybine et la psilocine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Champignon jaunâtre à chocolat au pied blanc.
 Chapeau souvent torsadé de 2 à 5 cm de large.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve ce champignon sur la façade nord-ouest de l'Amérique du Nord, en Europe centrale et de l'Ouest.
 Psilocybe cyanescens pousse le plus souvent sur des débris de bois.
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Psilocybe cyanescens, comme de nombreux autres champignons contenant de la psilocine, est parfois cultivé.
 À cause de la difficulté de sa culture, il est très compliqué d'en faire pousser à l'intérieur, mais toutefois sa culture en extérieur dans un climat approprié est relativement facile.
@@ -607,7 +625,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été décrit pour la première fois par E. M. Wakefield dans les années 1940 au Royaume-Uni.
 </t>
